--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -184,7 +184,7 @@
     <t>Week02</t>
   </si>
   <si>
-    <t>create_wordpress_blog_and_7articles.png, update_linkedin_with-photo.png, create_canva-menu.png</t>
+    <t>update_linkedin_with-photo.png, create_canva-menu.png</t>
   </si>
   <si>
     <t>create_wordpress_blog_and_7articles.png, update_linkedin_with-photo.png, create_canva-menu.png, download_figma_and_install.png</t>
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-08-31 10:36:34 PM</t>
+    <t>Generated: 2023-09-01 01:23:17 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-01 01:23:17 PM</t>
+    <t>Generated: 2023-09-01 02:46:39 PM</t>
   </si>
 </sst>
 </file>
@@ -930,17 +930,14 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
+      <c r="E21" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5">

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-01 02:46:39 PM</t>
+    <t>Generated: 2023-09-01 03:44:33 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -190,7 +190,7 @@
     <t>create_wordpress_blog_and_7articles.png, update_linkedin_with-photo.png, create_canva-menu.png, download_figma_and_install.png</t>
   </si>
   <si>
-    <t>create_wordpress_blog_and_7articles.png, download_figma_and_install.png</t>
+    <t>create_wordpress_blog_and_7articles.png</t>
   </si>
   <si>
     <t>download_figma_and_install.png</t>
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-01 03:44:33 PM</t>
+    <t>Generated: 2023-09-02 09:47:31 AM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>Student ID</t>
   </si>
@@ -184,31 +184,25 @@
     <t>Week02</t>
   </si>
   <si>
-    <t>update_linkedin_with-photo.png, create_canva-menu.png</t>
-  </si>
-  <si>
-    <t>create_wordpress_blog_and_7articles.png, update_linkedin_with-photo.png, create_canva-menu.png, download_figma_and_install.png</t>
-  </si>
-  <si>
-    <t>create_wordpress_blog_and_7articles.png</t>
-  </si>
-  <si>
-    <t>download_figma_and_install.png</t>
-  </si>
-  <si>
-    <t>create_canva-menu.png</t>
+    <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo, create_canva-menu, download_figma_and_install</t>
+  </si>
+  <si>
+    <t>download_figma_and_install</t>
+  </si>
+  <si>
+    <t>create_canva-menu</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
   <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-02 09:47:31 AM</t>
+    <t>Generated: 2023-09-02 11:44:08 AM</t>
   </si>
 </sst>
 </file>
@@ -588,7 +582,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="128.7109375" customWidth="1"/>
+    <col min="4" max="4" width="112.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -613,17 +607,14 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -637,27 +628,24 @@
         <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -671,7 +659,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -685,10 +673,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -702,10 +690,10 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -719,10 +707,10 @@
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -736,10 +724,10 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -753,7 +741,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -767,10 +755,10 @@
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -784,10 +772,10 @@
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -801,10 +789,10 @@
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -818,10 +806,10 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -835,10 +823,10 @@
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -852,10 +840,10 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -869,10 +857,10 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -886,10 +874,10 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -903,10 +891,10 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -920,10 +908,10 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -937,24 +925,21 @@
         <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>61</v>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -968,10 +953,10 @@
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -985,10 +970,10 @@
         <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1002,10 +987,10 @@
         <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1019,20 +1004,20 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t>Student ID</t>
   </si>
@@ -190,9 +190,6 @@
     <t>download_figma_and_install</t>
   </si>
   <si>
-    <t>create_canva-menu</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -202,7 +199,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-02 11:44:08 AM</t>
+    <t>Generated: 2023-09-02 12:00:19 PM</t>
   </si>
 </sst>
 </file>
@@ -614,7 +611,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -631,7 +628,7 @@
         <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -645,7 +642,7 @@
         <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -659,7 +656,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -676,7 +673,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -693,7 +690,7 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -710,7 +707,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -727,7 +724,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -741,7 +738,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -758,7 +755,7 @@
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -775,7 +772,7 @@
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -792,7 +789,7 @@
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -809,7 +806,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -826,7 +823,7 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -843,7 +840,7 @@
         <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -860,7 +857,7 @@
         <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -877,7 +874,7 @@
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -894,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -911,7 +908,7 @@
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -925,7 +922,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -939,7 +936,7 @@
         <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -956,7 +953,7 @@
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -973,7 +970,7 @@
         <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -990,34 +987,31 @@
         <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
   <si>
     <t>Student ID</t>
   </si>
@@ -73,6 +73,9 @@
     <t>PPP014</t>
   </si>
   <si>
+    <t>PPP015</t>
+  </si>
+  <si>
     <t>PPP016</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>Naveen Bromiyo A R</t>
   </si>
   <si>
+    <t>Kalai Selvi</t>
+  </si>
+  <si>
     <t>Madhan Karthick</t>
   </si>
   <si>
@@ -199,7 +205,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-02 12:00:19 PM</t>
+    <t>Generated: 2023-09-02 12:23:24 PM</t>
   </si>
 </sst>
 </file>
@@ -570,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -619,16 +625,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -636,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -650,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -664,16 +670,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -681,16 +687,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -698,16 +704,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -715,16 +721,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -732,13 +738,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -746,16 +752,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -763,16 +769,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -780,16 +786,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -797,16 +803,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -814,16 +820,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -831,16 +837,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -848,16 +854,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -865,16 +871,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -882,16 +888,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -899,30 +905,33 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
+      <c r="B21" t="s">
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -930,30 +939,27 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -961,16 +967,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -978,40 +984,57 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>54</v>
+      <c r="B26" t="s">
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-02 12:23:24 PM</t>
+    <t>Generated: 2023-09-02 01:24:24 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-02 01:24:24 PM</t>
+    <t>Generated: 2023-09-02 02:40:24 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -205,7 +205,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-02 02:40:24 PM</t>
+    <t>Generated: 2023-09-02 02:42:11 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -196,6 +196,12 @@
     <t>download_figma_and_install</t>
   </si>
   <si>
+    <t>update_linkedin_with-photo</t>
+  </si>
+  <si>
+    <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -205,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-02 02:42:11 PM</t>
+    <t>Generated: 2023-09-04 10:47:15 AM</t>
   </si>
 </sst>
 </file>
@@ -617,7 +623,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -634,7 +640,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -648,7 +654,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -662,7 +668,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -679,7 +685,7 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -696,7 +702,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -713,7 +719,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -730,7 +736,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -744,7 +750,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -761,7 +767,7 @@
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -778,7 +784,7 @@
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -792,10 +798,10 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -812,7 +818,7 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -826,10 +832,10 @@
         <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -846,7 +852,7 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -863,7 +869,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -880,7 +886,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -897,7 +903,7 @@
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -914,7 +920,7 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -931,7 +937,7 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -945,7 +951,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -959,7 +965,7 @@
         <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -976,7 +982,7 @@
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -993,7 +999,7 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1010,7 +1016,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1024,17 +1030,17 @@
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-04 10:47:15 AM</t>
+    <t>Generated: 2023-09-04 10:49:29 AM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-04 10:49:29 AM</t>
+    <t>Generated: 2023-09-04 11:35:43 AM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>Student ID</t>
   </si>
@@ -190,28 +190,13 @@
     <t>Week02</t>
   </si>
   <si>
-    <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo, create_canva-menu, download_figma_and_install</t>
-  </si>
-  <si>
-    <t>download_figma_and_install</t>
-  </si>
-  <si>
-    <t>update_linkedin_with-photo</t>
-  </si>
-  <si>
-    <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Pending</t>
+    <t>Folder not found</t>
   </si>
   <si>
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-04 11:35:43 AM</t>
+    <t>Generated: 2023-09-04 11:42:21 AM</t>
   </si>
 </sst>
 </file>
@@ -235,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,12 +230,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF007BFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,12 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +569,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="112.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,14 +594,14 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>62</v>
+      <c r="D2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -639,36 +617,33 @@
       <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>62</v>
+      <c r="D4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
+      <c r="D5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -684,9 +659,6 @@
       <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -701,9 +673,6 @@
       <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -718,9 +687,6 @@
       <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -735,22 +701,19 @@
       <c r="D9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>62</v>
+      <c r="D10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -766,9 +729,6 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -781,10 +741,7 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -798,10 +755,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -817,9 +771,6 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
@@ -832,10 +783,7 @@
         <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -851,11 +799,8 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -868,11 +813,8 @@
       <c r="D17" t="s">
         <v>58</v>
       </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -885,11 +827,8 @@
       <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -902,11 +841,8 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -919,11 +855,8 @@
       <c r="D20" t="s">
         <v>58</v>
       </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -936,39 +869,36 @@
       <c r="D21" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -981,11 +911,8 @@
       <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -998,11 +925,8 @@
       <c r="D25" t="s">
         <v>58</v>
       </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1015,32 +939,29 @@
       <c r="D26" t="s">
         <v>58</v>
       </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -190,13 +190,28 @@
     <t>Week02</t>
   </si>
   <si>
-    <t>Folder not found</t>
+    <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo, create_canva-menu, download_figma_and_install</t>
+  </si>
+  <si>
+    <t>download_figma_and_install</t>
+  </si>
+  <si>
+    <t>update_linkedin_with-photo</t>
+  </si>
+  <si>
+    <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
   <si>
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-04 11:42:21 AM</t>
+    <t>Generated: 2023-09-04 11:45:29 AM</t>
   </si>
 </sst>
 </file>
@@ -220,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF007BFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,11 +282,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +591,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="112.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -594,14 +616,14 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,33 +639,36 @@
       <c r="D3" t="s">
         <v>58</v>
       </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
-        <v>58</v>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -659,6 +684,9 @@
       <c r="D6" t="s">
         <v>58</v>
       </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -673,6 +701,9 @@
       <c r="D7" t="s">
         <v>58</v>
       </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -687,6 +718,9 @@
       <c r="D8" t="s">
         <v>58</v>
       </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -701,19 +735,22 @@
       <c r="D9" t="s">
         <v>58</v>
       </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" t="s">
-        <v>58</v>
+      <c r="E10" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -729,6 +766,9 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -741,7 +781,10 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -755,7 +798,10 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -771,6 +817,9 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
@@ -783,7 +832,10 @@
         <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -799,8 +851,11 @@
       <c r="D16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -813,8 +868,11 @@
       <c r="D17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -827,8 +885,11 @@
       <c r="D18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -841,8 +902,11 @@
       <c r="D19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -855,8 +919,11 @@
       <c r="D20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -869,36 +936,39 @@
       <c r="D21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -911,8 +981,11 @@
       <c r="D24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -925,8 +998,11 @@
       <c r="D25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -939,29 +1015,32 @@
       <c r="D26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E27" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-04 11:45:29 AM</t>
+    <t>Generated: 2023-09-04 12:02:20 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-04 12:02:20 PM</t>
+    <t>Generated: 2023-09-04 12:03:36 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-04 12:03:36 PM</t>
+    <t>Generated: 2023-09-05 08:57:16 PM</t>
   </si>
 </sst>
 </file>
@@ -726,17 +726,14 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-05 08:57:16 PM</t>
+    <t>Generated: 2023-09-06 12:05:39 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-06 12:05:39 PM</t>
+    <t>Generated: 2023-09-06 12:48:28 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-06 12:48:28 PM</t>
+    <t>Generated: 2023-09-07 04:15:18 PM</t>
   </si>
 </sst>
 </file>
@@ -754,17 +754,14 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-07 04:15:18 PM</t>
+    <t>Generated: 2023-09-08 11:48:59 AM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-08 11:48:59 AM</t>
+    <t>Generated: 2023-09-08 12:20:45 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-08 12:20:45 PM</t>
+    <t>Generated: 2023-09-08 12:26:22 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-08 12:26:22 PM</t>
+    <t>Generated: 2023-09-08 12:30:15 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-08 12:30:15 PM</t>
+    <t>Generated: 2023-09-08 12:48:16 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -193,9 +193,6 @@
     <t>create_wordpress_blog_and_7articles, update_linkedin_with-photo, create_canva-menu, download_figma_and_install</t>
   </si>
   <si>
-    <t>download_figma_and_install</t>
-  </si>
-  <si>
     <t>update_linkedin_with-photo</t>
   </si>
   <si>
@@ -211,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-08 12:48:16 PM</t>
+    <t>Generated: 2023-09-09 10:15:16 PM</t>
   </si>
 </sst>
 </file>
@@ -623,7 +620,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -640,7 +637,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -654,7 +651,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -668,7 +665,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -685,7 +682,7 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -702,7 +699,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -719,7 +716,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -733,7 +730,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -747,7 +744,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -761,24 +758,21 @@
         <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -792,10 +786,10 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -812,7 +806,7 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -826,10 +820,10 @@
         <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -846,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -863,7 +857,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -880,7 +874,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -897,7 +891,7 @@
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -914,7 +908,7 @@
         <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -931,7 +925,7 @@
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -945,7 +939,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -959,7 +953,7 @@
         <v>57</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -976,7 +970,7 @@
         <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -993,7 +987,7 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1010,7 +1004,7 @@
         <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1024,17 +1018,17 @@
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-09 10:15:16 PM</t>
+    <t>Generated: 2023-09-13 02:17:46 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
   <si>
     <t>Student ID</t>
   </si>
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-13 02:17:46 PM</t>
+    <t>Generated: 2023-09-13 04:31:48 PM</t>
   </si>
 </sst>
 </file>
@@ -672,17 +672,14 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-13 04:31:48 PM</t>
+    <t>Generated: 2023-09-14 10:47:40 AM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-14 10:47:40 AM</t>
+    <t>Generated: 2023-09-14 07:07:41 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-14 07:07:41 PM</t>
+    <t>Generated: 2023-09-15 11:34:41 AM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-19 10:15:04 PM</t>
+    <t>Generated: 2023-09-27 09:11:17 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-27 09:11:17 PM</t>
+    <t>Generated: 2023-09-28 11:46:32 AM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-28 11:46:32 AM</t>
+    <t>Generated: 2023-09-28 04:28:32 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-28 04:28:32 PM</t>
+    <t>Generated: 2023-09-30 11:21:49 AM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Completion Status</t>
   </si>
   <si>
+    <t>Streak</t>
+  </si>
+  <si>
     <t>PPP001</t>
   </si>
   <si>
@@ -208,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 11:21:49 AM</t>
+    <t>Generated: 2023-09-30 12:19:52 PM</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,9 +593,10 @@
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="112.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,424 +612,505 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 12:19:52 PM</t>
+    <t>Generated: 2023-09-30 01:54:09 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 01:54:09 PM</t>
+    <t>Generated: 2023-09-30 02:30:01 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-09-30 02:30:01 PM</t>
+    <t>Generated: 2023-10-02 04:25:00 PM</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>63</v>
@@ -1050,20 +1050,17 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
+      <c r="E25" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 04:25:00 PM</t>
+    <t>Generated: 2023-10-02 04:51:08 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 04:51:08 PM</t>
+    <t>Generated: 2023-10-02 05:14:49 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 05:14:49 PM</t>
+    <t>Generated: 2023-10-02 05:38:17 PM</t>
   </si>
 </sst>
 </file>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SwathipriyaSundaram\Students report\StudentsReport\StudentsReport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B21839B-E669-436C-994D-7384DEEDEBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>Student ID</t>
   </si>
@@ -217,8 +223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,13 +300,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,7 +352,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -372,6 +386,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -406,9 +421,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,12 +597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
@@ -596,7 +614,7 @@
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -633,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -653,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -670,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -687,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -704,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -724,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -744,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -761,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -778,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -795,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -812,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -832,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -852,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -872,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -892,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -912,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -932,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -952,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -972,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -992,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1009,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1026,27 +1044,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
       </c>
-      <c r="D24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1063,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1083,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1100,12 +1115,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>

--- a/Week02_report.xlsx
+++ b/Week02_report.xlsx
@@ -211,7 +211,7 @@
     <t>Week: Week02</t>
   </si>
   <si>
-    <t>Generated: 2023-10-02 05:38:17 PM</t>
+    <t>Generated: 2023-10-03 11:47:27 AM</t>
   </si>
 </sst>
 </file>
